--- a/Documents/Task-sheet/TaskSheet_v0.0.4.xlsx
+++ b/Documents/Task-sheet/TaskSheet_v0.0.4.xlsx
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -769,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
@@ -804,53 +804,8 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,13 +816,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,6 +846,41 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1184,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A110"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1197,50 +1200,51 @@
     <col min="3" max="3" width="60.5703125" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="136.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1267,17 +1271,17 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="21.75" thickBot="1">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="35">
+      <c r="E3" s="44">
         <v>0.3</v>
       </c>
       <c r="F3" s="5">
@@ -1298,15 +1302,15 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="21">
-      <c r="A4" s="27"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="5">
         <v>0.8</v>
       </c>
@@ -1319,13 +1323,13 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="9"/>
@@ -1338,13 +1342,13 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="21">
-      <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1357,13 +1361,13 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="21">
-      <c r="A7" s="27"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="5">
@@ -1376,13 +1380,13 @@
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="21">
-      <c r="A8" s="27"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="49"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1395,13 +1399,13 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="21">
-      <c r="A9" s="27"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1414,13 +1418,13 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="21">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1431,13 +1435,13 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="21.75" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="50"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="5">
@@ -1450,15 +1454,15 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="21">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="47" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1469,13 +1473,13 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="21">
-      <c r="A13" s="27"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1486,13 +1490,13 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="21">
-      <c r="A14" s="27"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1503,13 +1507,13 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="21">
-      <c r="A15" s="27"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1520,13 +1524,13 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="21">
-      <c r="A16" s="27"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1537,13 +1541,13 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="21">
-      <c r="A17" s="27"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1554,13 +1558,13 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="21">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="5">
         <v>0.8</v>
       </c>
@@ -1573,13 +1577,13 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="21">
-      <c r="A19" s="27"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1592,13 +1596,13 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="21">
-      <c r="A20" s="27"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="39"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1609,13 +1613,13 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="21">
-      <c r="A21" s="27"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="39"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1626,13 +1630,13 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="21">
-      <c r="A22" s="27"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1643,13 +1647,13 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="21">
-      <c r="A23" s="27"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1660,13 +1664,13 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="21">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1677,13 +1681,13 @@
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="21">
-      <c r="A25" s="27"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1696,15 +1700,15 @@
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" ht="21">
-      <c r="A26" s="27"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="42" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1715,13 +1719,13 @@
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" ht="21">
-      <c r="A27" s="27"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="36"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="5">
@@ -1734,13 +1738,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="21">
-      <c r="A28" s="27"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="46"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1753,13 +1757,13 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" ht="21">
-      <c r="A29" s="27"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="5">
         <v>0.8</v>
       </c>
@@ -1772,13 +1776,13 @@
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" ht="21">
-      <c r="A30" s="27"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -1789,13 +1793,13 @@
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13" ht="21">
-      <c r="A31" s="27"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="5">
@@ -1808,13 +1812,13 @@
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" ht="21">
-      <c r="A32" s="27"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="5">
         <v>0.85</v>
       </c>
@@ -1827,13 +1831,13 @@
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" ht="21">
-      <c r="A33" s="27"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -1846,13 +1850,13 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="21">
-      <c r="A34" s="27"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="36"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -1865,13 +1869,13 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="21">
-      <c r="A35" s="27"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="5">
@@ -1884,13 +1888,13 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" ht="21">
-      <c r="A36" s="27"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="36"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -1901,13 +1905,13 @@
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="21">
-      <c r="A37" s="27"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -1918,13 +1922,13 @@
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" ht="21">
-      <c r="A38" s="27"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="5">
@@ -1939,13 +1943,13 @@
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" ht="21">
-      <c r="A39" s="27"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="5">
         <v>0.8</v>
       </c>
@@ -1960,13 +1964,13 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="27"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="40"/>
       <c r="D40" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -1977,13 +1981,13 @@
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="40"/>
       <c r="D41" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="36"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="9"/>
       <c r="G41" s="17"/>
       <c r="H41" s="12"/>
@@ -1996,13 +2000,13 @@
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" ht="21">
-      <c r="A42" s="27"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="40"/>
       <c r="D42" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="36"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="17">
@@ -2015,13 +2019,13 @@
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" ht="21">
-      <c r="A43" s="27"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="40"/>
       <c r="D43" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="36"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2034,13 +2038,13 @@
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13" ht="21">
-      <c r="A44" s="27"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="40"/>
       <c r="D44" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="36"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2053,13 +2057,13 @@
       <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:13" ht="21">
-      <c r="A45" s="27"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="40"/>
       <c r="D45" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="36"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2070,13 +2074,13 @@
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" ht="21">
-      <c r="A46" s="27"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="40"/>
       <c r="D46" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="36"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -2089,13 +2093,13 @@
       <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:13" ht="21">
-      <c r="A47" s="27"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="40"/>
       <c r="D47" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="36"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="17">
         <v>0.8</v>
       </c>
@@ -2108,13 +2112,13 @@
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" ht="21">
-      <c r="A48" s="27"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="40"/>
       <c r="D48" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="36"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="17">
@@ -2127,13 +2131,13 @@
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" ht="21">
-      <c r="A49" s="27"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="40"/>
       <c r="D49" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="36"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -2146,13 +2150,13 @@
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" ht="21">
-      <c r="A50" s="27"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="40"/>
       <c r="D50" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="37"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="17">
         <v>0.8</v>
       </c>
@@ -2171,13 +2175,13 @@
       <c r="M50" s="17"/>
     </row>
     <row r="51" spans="1:13" ht="21">
-      <c r="A51" s="27"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="40"/>
       <c r="D51" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="37"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="9"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17">
@@ -2192,13 +2196,13 @@
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:13" ht="21">
-      <c r="A52" s="22"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="40"/>
       <c r="D52" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="37"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -2209,13 +2213,13 @@
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="21">
-      <c r="A53" s="22"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="40"/>
       <c r="D53" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="37"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="17">
@@ -2230,13 +2234,13 @@
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="21">
-      <c r="A54" s="22"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="40"/>
       <c r="D54" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="37"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="17">
         <v>0.8</v>
       </c>
@@ -2251,13 +2255,13 @@
       <c r="M54" s="17"/>
     </row>
     <row r="55" spans="1:13" ht="21">
-      <c r="A55" s="22"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="40"/>
       <c r="D55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="37"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="17">
         <v>0.8</v>
       </c>
@@ -2276,13 +2280,13 @@
       <c r="M55" s="17"/>
     </row>
     <row r="56" spans="1:13" ht="21">
-      <c r="A56" s="22"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="40"/>
       <c r="D56" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="37"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -2293,13 +2297,13 @@
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" ht="21">
-      <c r="A57" s="22"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="40"/>
       <c r="D57" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="37"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="17">
@@ -2314,13 +2318,13 @@
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" ht="21">
-      <c r="A58" s="22"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="40"/>
       <c r="D58" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="37"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="17"/>
@@ -2331,13 +2335,13 @@
       <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" ht="21">
-      <c r="A59" s="22"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="41"/>
       <c r="D59" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="37"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -2348,15 +2352,15 @@
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" ht="21">
-      <c r="A60" s="22"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="42" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="37"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -2367,13 +2371,13 @@
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" ht="21">
-      <c r="A61" s="22"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="37"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -2384,13 +2388,13 @@
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" ht="21">
-      <c r="A62" s="22"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="43"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="37"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -2401,13 +2405,13 @@
       <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" ht="21">
-      <c r="A63" s="22"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="43"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="37"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -2418,13 +2422,13 @@
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" ht="21">
-      <c r="A64" s="22"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="43"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="37"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -2435,13 +2439,13 @@
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" ht="21">
-      <c r="A65" s="22"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="37"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -2452,13 +2456,13 @@
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" ht="21">
-      <c r="A66" s="22"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="43"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="37"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -2469,13 +2473,13 @@
       <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" ht="21">
-      <c r="A67" s="22"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="43"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="37"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -2486,13 +2490,13 @@
       <c r="M67" s="12"/>
     </row>
     <row r="68" spans="1:13" ht="21">
-      <c r="A68" s="22"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="43"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E68" s="37"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -2503,13 +2507,13 @@
       <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="21">
-      <c r="A69" s="22"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="43"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="37"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -2520,13 +2524,13 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="1:13" ht="21">
-      <c r="A70" s="22"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="43"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="37"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -2537,13 +2541,13 @@
       <c r="M70" s="12"/>
     </row>
     <row r="71" spans="1:13" ht="21">
-      <c r="A71" s="22"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="43"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="37"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -2554,13 +2558,13 @@
       <c r="M71" s="12"/>
     </row>
     <row r="72" spans="1:13" ht="21">
-      <c r="A72" s="22"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="43"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="37"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -2571,13 +2575,13 @@
       <c r="M72" s="12"/>
     </row>
     <row r="73" spans="1:13" ht="21">
-      <c r="A73" s="22"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="37"/>
+      <c r="E73" s="46"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -2588,13 +2592,13 @@
       <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13" ht="21">
-      <c r="A74" s="22"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="43"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="37"/>
+      <c r="E74" s="46"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -2605,13 +2609,13 @@
       <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13" ht="21">
-      <c r="A75" s="22"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="43"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="37"/>
+      <c r="E75" s="46"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -2622,13 +2626,13 @@
       <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13" ht="21">
-      <c r="A76" s="22"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="37"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -2639,13 +2643,13 @@
       <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:13" ht="21">
-      <c r="A77" s="22"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="43"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="37"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -2656,13 +2660,13 @@
       <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:13" ht="21">
-      <c r="A78" s="22"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="43"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="37"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -2673,13 +2677,13 @@
       <c r="M78" s="12"/>
     </row>
     <row r="79" spans="1:13" ht="21">
-      <c r="A79" s="22"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="37"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -2690,13 +2694,13 @@
       <c r="M79" s="12"/>
     </row>
     <row r="80" spans="1:13" ht="21">
-      <c r="A80" s="22"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="43"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="37"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -2707,13 +2711,13 @@
       <c r="M80" s="12"/>
     </row>
     <row r="81" spans="1:13" ht="21">
-      <c r="A81" s="22"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="43"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E81" s="37"/>
+      <c r="E81" s="46"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -2724,13 +2728,13 @@
       <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13" ht="21">
-      <c r="A82" s="22"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="43"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="37"/>
+      <c r="E82" s="46"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -2741,13 +2745,13 @@
       <c r="M82" s="12"/>
     </row>
     <row r="83" spans="1:13" ht="21">
-      <c r="A83" s="22"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="43"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="37"/>
+      <c r="E83" s="46"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -2758,13 +2762,13 @@
       <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13" ht="21">
-      <c r="A84" s="22"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="43"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="37"/>
+      <c r="E84" s="46"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -2775,13 +2779,13 @@
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" ht="21">
-      <c r="A85" s="22"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="22"/>
       <c r="D85" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E85" s="37"/>
+      <c r="E85" s="46"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -2792,13 +2796,13 @@
       <c r="M85" s="12"/>
     </row>
     <row r="86" spans="1:13" ht="21">
-      <c r="A86" s="22"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="22"/>
       <c r="D86" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="37"/>
+      <c r="E86" s="46"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -2809,13 +2813,13 @@
       <c r="M86" s="12"/>
     </row>
     <row r="87" spans="1:13" ht="21">
-      <c r="A87" s="22"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="43"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="22"/>
       <c r="D87" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E87" s="37"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -2826,13 +2830,13 @@
       <c r="M87" s="12"/>
     </row>
     <row r="88" spans="1:13" ht="21">
-      <c r="A88" s="22"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="43"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="22"/>
       <c r="D88" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="37"/>
+      <c r="E88" s="46"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -2843,13 +2847,13 @@
       <c r="M88" s="12"/>
     </row>
     <row r="89" spans="1:13" ht="21">
-      <c r="A89" s="22"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="43"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E89" s="37"/>
+      <c r="E89" s="46"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -2860,13 +2864,13 @@
       <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13" ht="21">
-      <c r="A90" s="22"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="44"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="23"/>
       <c r="D90" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="37"/>
+      <c r="E90" s="46"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -2877,15 +2881,15 @@
       <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13" ht="21">
-      <c r="A91" s="22"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="42" t="s">
+      <c r="A91" s="27"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E91" s="37"/>
+      <c r="E91" s="46"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -2896,13 +2900,13 @@
       <c r="M91" s="12"/>
     </row>
     <row r="92" spans="1:13" ht="21">
-      <c r="A92" s="22"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="43"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E92" s="37"/>
+      <c r="E92" s="46"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -2913,13 +2917,13 @@
       <c r="M92" s="12"/>
     </row>
     <row r="93" spans="1:13" ht="21">
-      <c r="A93" s="22"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="43"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="37"/>
+      <c r="E93" s="46"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -2930,13 +2934,13 @@
       <c r="M93" s="12"/>
     </row>
     <row r="94" spans="1:13" ht="21">
-      <c r="A94" s="22"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="43"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E94" s="37"/>
+      <c r="E94" s="46"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -2947,13 +2951,13 @@
       <c r="M94" s="12"/>
     </row>
     <row r="95" spans="1:13" ht="21">
-      <c r="A95" s="22"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="43"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E95" s="37"/>
+      <c r="E95" s="46"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -2964,13 +2968,13 @@
       <c r="M95" s="12"/>
     </row>
     <row r="96" spans="1:13" ht="21">
-      <c r="A96" s="22"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="43"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E96" s="37"/>
+      <c r="E96" s="46"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -2981,13 +2985,13 @@
       <c r="M96" s="12"/>
     </row>
     <row r="97" spans="1:13" ht="21">
-      <c r="A97" s="22"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="43"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E97" s="37"/>
+      <c r="E97" s="46"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -2998,13 +3002,13 @@
       <c r="M97" s="12"/>
     </row>
     <row r="98" spans="1:13" ht="21">
-      <c r="A98" s="22"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="43"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="37"/>
+      <c r="E98" s="46"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -3015,13 +3019,13 @@
       <c r="M98" s="12"/>
     </row>
     <row r="99" spans="1:13" ht="21">
-      <c r="A99" s="22"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="43"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E99" s="37"/>
+      <c r="E99" s="46"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -3032,13 +3036,13 @@
       <c r="M99" s="12"/>
     </row>
     <row r="100" spans="1:13" ht="21">
-      <c r="A100" s="22"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="43"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="37"/>
+      <c r="E100" s="46"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -3049,13 +3053,13 @@
       <c r="M100" s="12"/>
     </row>
     <row r="101" spans="1:13" ht="21">
-      <c r="A101" s="22"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="43"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E101" s="37"/>
+      <c r="E101" s="46"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
@@ -3066,13 +3070,13 @@
       <c r="M101" s="12"/>
     </row>
     <row r="102" spans="1:13" ht="21">
-      <c r="A102" s="22"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="43"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E102" s="37"/>
+      <c r="E102" s="46"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
@@ -3083,13 +3087,13 @@
       <c r="M102" s="12"/>
     </row>
     <row r="103" spans="1:13" ht="21">
-      <c r="A103" s="22"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="43"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E103" s="37"/>
+      <c r="E103" s="46"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -3100,13 +3104,13 @@
       <c r="M103" s="12"/>
     </row>
     <row r="104" spans="1:13" ht="21">
-      <c r="A104" s="22"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="23"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="24"/>
       <c r="D104" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E104" s="37"/>
+      <c r="E104" s="46"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -3117,15 +3121,15 @@
       <c r="M104" s="12"/>
     </row>
     <row r="105" spans="1:13" ht="21">
-      <c r="A105" s="22"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="42" t="s">
+      <c r="A105" s="27"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="21" t="s">
         <v>120</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E105" s="37"/>
+      <c r="E105" s="46"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -3136,13 +3140,13 @@
       <c r="M105" s="12"/>
     </row>
     <row r="106" spans="1:13" ht="21">
-      <c r="A106" s="22"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="21"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E106" s="37"/>
+      <c r="E106" s="46"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -3153,13 +3157,13 @@
       <c r="M106" s="12"/>
     </row>
     <row r="107" spans="1:13" ht="21">
-      <c r="A107" s="22"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="21"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="37"/>
+      <c r="E107" s="46"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -3170,13 +3174,13 @@
       <c r="M107" s="12"/>
     </row>
     <row r="108" spans="1:13" ht="21">
-      <c r="A108" s="22"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="21"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E108" s="37"/>
+      <c r="E108" s="46"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -3187,13 +3191,13 @@
       <c r="M108" s="12"/>
     </row>
     <row r="109" spans="1:13" ht="21">
-      <c r="A109" s="22"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="21"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="37"/>
+      <c r="E109" s="46"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -3204,11 +3208,11 @@
       <c r="M109" s="12"/>
     </row>
     <row r="110" spans="1:13" ht="21">
-      <c r="A110" s="23"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="45"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="43"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="38"/>
+      <c r="E110" s="47"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -3219,10 +3223,10 @@
       <c r="M110" s="12"/>
     </row>
     <row r="111" spans="1:13" ht="21">
-      <c r="A111" s="12">
+      <c r="A111" s="20">
         <v>2</v>
       </c>
-      <c r="B111" s="33"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="12" t="s">
         <v>132</v>
       </c>
@@ -3240,10 +3244,10 @@
       <c r="M111" s="12"/>
     </row>
     <row r="112" spans="1:13" ht="21">
-      <c r="A112" s="12">
+      <c r="A112" s="20">
         <v>3</v>
       </c>
-      <c r="B112" s="34"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="12" t="s">
         <v>133</v>
       </c>
@@ -3261,10 +3265,10 @@
       <c r="M112" s="12"/>
     </row>
     <row r="113" spans="1:13" ht="21">
-      <c r="A113" s="12">
+      <c r="A113" s="21">
         <v>4</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -3284,10 +3288,8 @@
       <c r="M113" s="12"/>
     </row>
     <row r="114" spans="1:13" ht="21">
-      <c r="A114" s="12">
-        <v>5</v>
-      </c>
-      <c r="B114" s="43"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="12" t="s">
         <v>25</v>
       </c>
@@ -3305,10 +3307,8 @@
       <c r="M114" s="12"/>
     </row>
     <row r="115" spans="1:13" ht="21">
-      <c r="A115" s="12">
-        <v>6</v>
-      </c>
-      <c r="B115" s="43"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="12" t="s">
         <v>26</v>
       </c>
@@ -3326,17 +3326,11 @@
       <c r="M115" s="12"/>
     </row>
     <row r="116" spans="1:13" ht="21">
-      <c r="A116" s="12">
-        <v>7</v>
-      </c>
-      <c r="B116" s="44"/>
-      <c r="C116" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="5">
-        <v>0.3</v>
-      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -3347,18 +3341,14 @@
       <c r="M116" s="12"/>
     </row>
     <row r="117" spans="1:13" ht="21">
-      <c r="A117" s="12">
-        <v>8</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
@@ -3370,18 +3360,18 @@
       <c r="M117" s="12"/>
     </row>
     <row r="118" spans="1:13" ht="21">
-      <c r="A118" s="12">
-        <v>9</v>
-      </c>
-      <c r="B118" s="45"/>
+      <c r="A118" s="20">
+        <v>5</v>
+      </c>
+      <c r="B118" s="51" t="s">
+        <v>28</v>
+      </c>
       <c r="C118" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D118" s="12"/>
       <c r="E118" s="5">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
@@ -3393,13 +3383,19 @@
       <c r="M118" s="12"/>
     </row>
     <row r="119" spans="1:13" ht="21">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="A119" s="20">
+        <v>6</v>
+      </c>
+      <c r="B119" s="43"/>
+      <c r="C119" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0.3</v>
+      </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -3409,13 +3405,29 @@
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
     </row>
+    <row r="120" spans="1:13" ht="21">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C60:C90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="A3:A110"/>
-    <mergeCell ref="B3:B112"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="21">
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="C12:C25"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A113:A117"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3423,14 +3435,16 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C60:C90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="A3:A110"/>
+    <mergeCell ref="B3:B112"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="C4:C11"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="C26:C59"/>
     <mergeCell ref="C105:C110"/>
     <mergeCell ref="E3:E110"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="C12:C25"/>
-    <mergeCell ref="B117:B118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
